--- a/lcd_raw_0/segmap.xlsx
+++ b/lcd_raw_0/segmap.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AVR\AVR\lcd_raw_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBAF04-1637-4F26-ABA6-46DB47A50196}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{5025983E-4EE2-471E-B720-CAC670001845}"/>
   </bookViews>
@@ -255,7 +256,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,16 +264,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -280,11 +301,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,12 +324,75 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="45">
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -310,35 +405,17 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -386,40 +463,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -591,8 +647,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E3D75D0-9681-4862-9557-4A81E7A44B2D}" name="Table1" displayName="Table1" ref="A17:I38" totalsRowCount="1" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="A17:I37" xr:uid="{BBA4DD26-E0A4-4C45-8A8C-67C9F8B32833}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8E3D75D0-9681-4862-9557-4A81E7A44B2D}" name="Table1" displayName="Table1" ref="A17:I40" totalsRowCount="1" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="A17:I39" xr:uid="{BBA4DD26-E0A4-4C45-8A8C-67C9F8B32833}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -604,17 +660,17 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{11B48884-409B-4279-A587-43DDED6BA420}" name="Display" dataDxfId="35" totalsRowDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{CB83DB6C-0968-493F-BEC3-097762AFBA25}" name="A" dataDxfId="34" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{C234FBF9-55AC-452C-A82A-54EFA8753739}" name="B" dataDxfId="33" totalsRowDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{27ABAC60-E49C-4D00-BE57-728B702EBC1D}" name="C" dataDxfId="32" totalsRowDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{480DFCDD-5E46-4758-B8F2-89D3C8F827B3}" name="D" dataDxfId="31" totalsRowDxfId="22"/>
-    <tableColumn id="6" xr3:uid="{A10734AA-DFCD-4B62-AB1B-DAEAE2AA2709}" name="E" dataDxfId="30" totalsRowDxfId="21"/>
-    <tableColumn id="7" xr3:uid="{65888387-1405-4E8C-ACD9-DA2F81D1B9A7}" name="F" dataDxfId="29" totalsRowDxfId="20"/>
-    <tableColumn id="8" xr3:uid="{72215B1D-85CF-43CD-95DC-C4323ACC1527}" name="G" dataDxfId="28" totalsRowDxfId="19"/>
-    <tableColumn id="9" xr3:uid="{B9888CFC-387C-4DCD-A7F8-DAFA78F263A3}" name="final" totalsRowFunction="custom" dataDxfId="27" totalsRowDxfId="18">
-      <calculatedColumnFormula>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</calculatedColumnFormula>
-      <totalsRowFormula>Combine(Table1[final])</totalsRowFormula>
+    <tableColumn id="1" xr3:uid="{11B48884-409B-4279-A587-43DDED6BA420}" name="Display" dataDxfId="42" totalsRowDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{CB83DB6C-0968-493F-BEC3-097762AFBA25}" name="G" dataDxfId="12" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C234FBF9-55AC-452C-A82A-54EFA8753739}" name="F" dataDxfId="9" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{27ABAC60-E49C-4D00-BE57-728B702EBC1D}" name="E" dataDxfId="41" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{480DFCDD-5E46-4758-B8F2-89D3C8F827B3}" name="D" dataDxfId="40" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A10734AA-DFCD-4B62-AB1B-DAEAE2AA2709}" name="C" dataDxfId="39" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{65888387-1405-4E8C-ACD9-DA2F81D1B9A7}" name="B" dataDxfId="10" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{72215B1D-85CF-43CD-95DC-C4323ACC1527}" name="A" dataDxfId="11" totalsRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{B9888CFC-387C-4DCD-A7F8-DAFA78F263A3}" name="final" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="0">
+      <calculatedColumnFormula>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</calculatedColumnFormula>
+      <totalsRowFormula>_xlfn.CONCAT(I18,",",I19,",",I20,",",I21,",",I22,",",I23,",",I24,",",I25,",",I26,",",I27,"};")</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -622,7 +678,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A19E120A-6E29-458C-9108-193B31ACB02C}" name="Table2" displayName="Table2" ref="Q1:U14" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A19E120A-6E29-458C-9108-193B31ACB02C}" name="Table2" displayName="Table2" ref="Q1:U14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
   <autoFilter ref="Q1:U14" xr:uid="{54C247DD-4D59-43FD-8264-5F723F35A77A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -631,18 +687,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2513408F-960A-48BA-B011-3FC17DAC7DF9}" name="PinMap" dataDxfId="42"/>
-    <tableColumn id="2" xr3:uid="{9D72B6F9-6F33-4F52-9AC1-A293852E8FBA}" name="com1" dataDxfId="41"/>
-    <tableColumn id="3" xr3:uid="{1CB8F889-3284-4284-9F09-57727FAF89D4}" name="com2" dataDxfId="40"/>
-    <tableColumn id="4" xr3:uid="{045EEE89-400D-4474-982A-8D123E2AF345}" name="com3" dataDxfId="39"/>
-    <tableColumn id="5" xr3:uid="{A0AA3F87-39EA-4D5B-9DE4-16F474189616}" name="com4" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{2513408F-960A-48BA-B011-3FC17DAC7DF9}" name="PinMap" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{9D72B6F9-6F33-4F52-9AC1-A293852E8FBA}" name="com1" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{1CB8F889-3284-4284-9F09-57727FAF89D4}" name="com2" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{045EEE89-400D-4474-982A-8D123E2AF345}" name="com3" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{A0AA3F87-39EA-4D5B-9DE4-16F474189616}" name="com4" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E05B838F-115F-4568-AC2D-CFFBD02C7F79}" name="Table4" displayName="Table4" ref="K17:R24" totalsRowCount="1" headerRowDxfId="10" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E05B838F-115F-4568-AC2D-CFFBD02C7F79}" name="Table4" displayName="Table4" ref="K17:R24" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="K17:R23" xr:uid="{F6078CEB-5335-4E9C-A0EF-B684E2A499DD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -653,14 +709,14 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{986FE52B-923F-4E87-8CDB-AD142EC3CB22}" name="Segs" dataDxfId="17" totalsRowDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{DBCF4063-4200-4D02-8B6A-C3E380B04E80}" name="X0" dataDxfId="16" totalsRowDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{221A5482-B8DD-40EB-B128-5D23C1560A76}" name="X1" dataDxfId="15" totalsRowDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{8104AA76-A364-41AD-B2B1-C8BBB22239DC}" name="X2" dataDxfId="14" totalsRowDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{A8C2E54F-5B73-4327-B07C-DBB8D7568625}" name="X3" dataDxfId="13" totalsRowDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{C59D2AD3-C88E-4ACA-9093-E96FDDB03DF8}" name="X4" dataDxfId="12" totalsRowDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{AE92FF5E-8738-4F3A-8AFE-2B528C4A7B91}" name="X5" dataDxfId="9" totalsRowDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{78874560-81FB-4D1F-9E0B-BFA4B5067283}" name="final" totalsRowFunction="custom" dataDxfId="8" totalsRowDxfId="0">
+    <tableColumn id="1" xr3:uid="{986FE52B-923F-4E87-8CDB-AD142EC3CB22}" name="Segs" dataDxfId="28" totalsRowDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{DBCF4063-4200-4D02-8B6A-C3E380B04E80}" name="X0" dataDxfId="26" totalsRowDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{221A5482-B8DD-40EB-B128-5D23C1560A76}" name="X1" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{8104AA76-A364-41AD-B2B1-C8BBB22239DC}" name="X2" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{A8C2E54F-5B73-4327-B07C-DBB8D7568625}" name="X3" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{C59D2AD3-C88E-4ACA-9093-E96FDDB03DF8}" name="X4" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{AE92FF5E-8738-4F3A-8AFE-2B528C4A7B91}" name="X5" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{78874560-81FB-4D1F-9E0B-BFA4B5067283}" name="final" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
       <calculatedColumnFormula>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table4[[#This Row],[X0]:[X5]])))</calculatedColumnFormula>
       <totalsRowFormula>Combine(Table4[final])</totalsRowFormula>
     </tableColumn>
@@ -969,8 +1025,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1259,25 +1315,25 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>6</v>
+      <c r="F17" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>0</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>67</v>
@@ -1312,7 +1368,7 @@
         <v>0</v>
       </c>
       <c r="B18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="1">
         <v>1</v>
@@ -1323,18 +1379,18 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>1</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x7E</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x3F</v>
       </c>
       <c r="K18" s="1" t="s">
         <v>68</v>
@@ -1370,26 +1426,26 @@
         <v>0</v>
       </c>
       <c r="C19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D19" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19" s="1">
         <v>0</v>
       </c>
-      <c r="F19" s="1">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
         <v>0</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x30</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x6</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>69</v>
@@ -1425,26 +1481,26 @@
         <v>1</v>
       </c>
       <c r="C20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D20" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
+      <c r="F20" s="4">
+        <v>0</v>
+      </c>
+      <c r="G20" s="4">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x6D</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x5B</v>
       </c>
       <c r="K20" s="1" t="s">
         <v>70</v>
@@ -1480,26 +1536,26 @@
         <v>1</v>
       </c>
       <c r="C21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="1">
-        <v>0</v>
-      </c>
-      <c r="G21" s="1">
-        <v>0</v>
-      </c>
-      <c r="H21" s="1">
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>1</v>
+      </c>
+      <c r="H21" s="5">
         <v>1</v>
       </c>
       <c r="I21" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x79</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x4F</v>
       </c>
       <c r="K21" s="1" t="s">
         <v>71</v>
@@ -1532,29 +1588,29 @@
         <v>4</v>
       </c>
       <c r="B22" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C22" s="1">
         <v>1</v>
       </c>
       <c r="D22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" s="1">
         <v>0</v>
       </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-      <c r="G22" s="1">
-        <v>1</v>
-      </c>
-      <c r="H22" s="1">
-        <v>1</v>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4">
+        <v>1</v>
+      </c>
+      <c r="H22" s="4">
+        <v>0</v>
       </c>
       <c r="I22" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x33</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x66</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>72</v>
@@ -1590,26 +1646,26 @@
         <v>1</v>
       </c>
       <c r="C23" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-      <c r="G23" s="1">
-        <v>1</v>
-      </c>
-      <c r="H23" s="1">
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <v>1</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x5B</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x6D</v>
       </c>
       <c r="K23" s="1" t="s">
         <v>73</v>
@@ -1645,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D24" s="1">
         <v>1</v>
@@ -1653,18 +1709,18 @@
       <c r="E24" s="1">
         <v>1</v>
       </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="1">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1">
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0</v>
+      </c>
+      <c r="H24" s="4">
         <v>1</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x5F</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x7D</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1679,29 +1735,29 @@
         <v>7</v>
       </c>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="1">
         <v>0</v>
       </c>
-      <c r="F25" s="1">
-        <v>0</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0</v>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+      <c r="G25" s="5">
+        <v>1</v>
+      </c>
+      <c r="H25" s="5">
+        <v>1</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x70</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x7</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1723,21 +1779,20 @@
       <c r="E26" s="1">
         <v>1</v>
       </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1">
-        <v>1</v>
-      </c>
-      <c r="H26" s="1">
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="4">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
         <v>1</v>
       </c>
       <c r="I26" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
         <v>0x7F</v>
       </c>
       <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
@@ -1751,26 +1806,25 @@
         <v>1</v>
       </c>
       <c r="D27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" s="1">
         <v>1</v>
       </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1">
-        <v>1</v>
-      </c>
-      <c r="H27" s="1">
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+      <c r="G27" s="5">
+        <v>1</v>
+      </c>
+      <c r="H27" s="5">
         <v>1</v>
       </c>
       <c r="I27" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x7B</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x6F</v>
       </c>
       <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
@@ -1789,21 +1843,24 @@
       <c r="E28" s="1">
         <v>0</v>
       </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1</v>
-      </c>
-      <c r="H28" s="1">
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1</v>
+      </c>
+      <c r="H28" s="4">
         <v>1</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
         <v>0x77</v>
       </c>
+      <c r="L28" s="1" t="str">
+        <f>HEX2BIN(30)</f>
+        <v>110000</v>
+      </c>
       <c r="O28" s="2"/>
-      <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
@@ -1811,10 +1868,10 @@
         <v>7</v>
       </c>
       <c r="B29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29" s="1">
         <v>1</v>
@@ -1822,21 +1879,20 @@
       <c r="E29" s="1">
         <v>1</v>
       </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="1">
-        <v>1</v>
-      </c>
-      <c r="H29" s="1">
-        <v>1</v>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+      <c r="G29" s="5">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <v>0</v>
       </c>
       <c r="I29" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x1F</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x7C</v>
       </c>
       <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
@@ -1844,32 +1900,31 @@
         <v>2</v>
       </c>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D30" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1">
         <v>1</v>
       </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="1">
-        <v>1</v>
-      </c>
-      <c r="H30" s="1">
-        <v>0</v>
+      <c r="F30" s="4">
+        <v>0</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0</v>
+      </c>
+      <c r="H30" s="4">
+        <v>1</v>
       </c>
       <c r="I30" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x4E</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x39</v>
       </c>
       <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.25">
@@ -1877,10 +1932,10 @@
         <v>8</v>
       </c>
       <c r="B31" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -1888,21 +1943,20 @@
       <c r="E31" s="1">
         <v>1</v>
       </c>
-      <c r="F31" s="1">
-        <v>1</v>
-      </c>
-      <c r="G31" s="1">
-        <v>0</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1</v>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+      <c r="G31" s="5">
+        <v>1</v>
+      </c>
+      <c r="H31" s="5">
+        <v>0</v>
       </c>
       <c r="I31" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x3D</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x5E</v>
       </c>
       <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.25">
@@ -1913,29 +1967,28 @@
         <v>1</v>
       </c>
       <c r="C32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1">
         <v>1</v>
       </c>
-      <c r="F32" s="1">
-        <v>1</v>
-      </c>
-      <c r="G32" s="1">
-        <v>1</v>
-      </c>
-      <c r="H32" s="1">
+      <c r="F32" s="4">
+        <v>0</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0</v>
+      </c>
+      <c r="H32" s="4">
         <v>1</v>
       </c>
       <c r="I32" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x4F</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x79</v>
       </c>
       <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1946,29 +1999,28 @@
         <v>1</v>
       </c>
       <c r="C33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1">
         <v>0</v>
       </c>
-      <c r="F33" s="1">
-        <v>1</v>
-      </c>
-      <c r="G33" s="1">
-        <v>1</v>
-      </c>
-      <c r="H33" s="1">
+      <c r="F33" s="5">
+        <v>0</v>
+      </c>
+      <c r="G33" s="5">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
         <v>1</v>
       </c>
       <c r="I33" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x47</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x71</v>
       </c>
       <c r="O33" s="2"/>
-      <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1976,7 +2028,7 @@
         <v>9</v>
       </c>
       <c r="B34" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C34" s="1">
         <v>1</v>
@@ -1987,21 +2039,20 @@
       <c r="E34" s="1">
         <v>0</v>
       </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-      <c r="G34" s="1">
-        <v>1</v>
-      </c>
-      <c r="H34" s="1">
-        <v>1</v>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="4">
+        <v>1</v>
+      </c>
+      <c r="H34" s="4">
+        <v>0</v>
       </c>
       <c r="I34" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x37</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x76</v>
       </c>
       <c r="O34" s="2"/>
-      <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -2012,29 +2063,28 @@
         <v>0</v>
       </c>
       <c r="C35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1">
         <v>1</v>
       </c>
-      <c r="F35" s="1">
-        <v>1</v>
-      </c>
-      <c r="G35" s="1">
-        <v>1</v>
-      </c>
-      <c r="H35" s="1">
+      <c r="F35" s="5">
+        <v>0</v>
+      </c>
+      <c r="G35" s="5">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
         <v>0</v>
       </c>
       <c r="I35" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0xE</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x38</v>
       </c>
       <c r="O35" s="2"/>
-      <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -2048,26 +2098,25 @@
         <v>1</v>
       </c>
       <c r="D36" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1">
         <v>0</v>
       </c>
-      <c r="F36" s="1">
-        <v>1</v>
-      </c>
-      <c r="G36" s="1">
-        <v>1</v>
-      </c>
-      <c r="H36" s="1">
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4">
+        <v>1</v>
+      </c>
+      <c r="H36" s="4">
         <v>1</v>
       </c>
       <c r="I36" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
-        <v>0x67</v>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x73</v>
       </c>
       <c r="O36" s="2"/>
-      <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -2086,35 +2135,46 @@
       <c r="E37" s="1">
         <v>1</v>
       </c>
-      <c r="F37" s="1">
-        <v>1</v>
-      </c>
-      <c r="G37" s="1">
-        <v>1</v>
-      </c>
-      <c r="H37" s="1">
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+      <c r="G37" s="5">
+        <v>1</v>
+      </c>
+      <c r="H37" s="5">
         <v>0</v>
       </c>
       <c r="I37" s="1" t="str">
-        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[A]:[G]])))</f>
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
         <v>0x3E</v>
       </c>
       <c r="O37" s="2"/>
-      <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="I38" s="1" t="str">
-        <f>Combine(Table1[final])</f>
-        <v>0x7E,0x30,0x6D,0x79,0x33,0x5B,0x5F,0x70,0x7F,0x7B,0x77,0x1F,0x4E,0x3D,0x4F,0x47,0x37,0xE,0x67,0x3E</v>
+      <c r="H38" s="6"/>
+      <c r="I38" s="2" t="str">
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x0</v>
       </c>
       <c r="O38" s="2"/>
-      <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H39" s="6"/>
+      <c r="I39" s="2" t="str">
+        <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
+        <v>0x0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="str">
+        <f>_xlfn.CONCAT(I18,",",I19,",",I20,",",I21,",",I22,",",I23,",",I24,",",I25,",",I26,",",I27,"};")</f>
+        <v>0x3F,0x6,0x5B,0x4F,0x66,0x6D,0x7D,0x7,0x7F,0x6F};</v>
+      </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lcd_raw_0/segmap.xlsx
+++ b/lcd_raw_0/segmap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AVR\AVR\lcd_raw_0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85EBAF04-1637-4F26-ABA6-46DB47A50196}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AEB50B9-9989-42F0-927C-AD6ADC812B78}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11370" xr2:uid="{5025983E-4EE2-471E-B720-CAC670001845}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t>A</t>
   </si>
@@ -250,6 +250,9 @@
   </si>
   <si>
     <t>Segs</t>
+  </si>
+  <si>
+    <t>Minus</t>
   </si>
 </sst>
 </file>
@@ -369,9 +372,89 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -393,89 +476,9 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -661,14 +664,14 @@
   </autoFilter>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{11B48884-409B-4279-A587-43DDED6BA420}" name="Display" dataDxfId="42" totalsRowDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{CB83DB6C-0968-493F-BEC3-097762AFBA25}" name="G" dataDxfId="12" totalsRowDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{C234FBF9-55AC-452C-A82A-54EFA8753739}" name="F" dataDxfId="9" totalsRowDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{27ABAC60-E49C-4D00-BE57-728B702EBC1D}" name="E" dataDxfId="41" totalsRowDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{480DFCDD-5E46-4758-B8F2-89D3C8F827B3}" name="D" dataDxfId="40" totalsRowDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{A10734AA-DFCD-4B62-AB1B-DAEAE2AA2709}" name="C" dataDxfId="39" totalsRowDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{65888387-1405-4E8C-ACD9-DA2F81D1B9A7}" name="B" dataDxfId="10" totalsRowDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{72215B1D-85CF-43CD-95DC-C4323ACC1527}" name="A" dataDxfId="11" totalsRowDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{B9888CFC-387C-4DCD-A7F8-DAFA78F263A3}" name="final" totalsRowFunction="custom" dataDxfId="38" totalsRowDxfId="0">
+    <tableColumn id="2" xr3:uid="{CB83DB6C-0968-493F-BEC3-097762AFBA25}" name="G" dataDxfId="41" totalsRowDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{C234FBF9-55AC-452C-A82A-54EFA8753739}" name="F" dataDxfId="40" totalsRowDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{27ABAC60-E49C-4D00-BE57-728B702EBC1D}" name="E" dataDxfId="39" totalsRowDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{480DFCDD-5E46-4758-B8F2-89D3C8F827B3}" name="D" dataDxfId="38" totalsRowDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{A10734AA-DFCD-4B62-AB1B-DAEAE2AA2709}" name="C" dataDxfId="37" totalsRowDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{65888387-1405-4E8C-ACD9-DA2F81D1B9A7}" name="B" dataDxfId="36" totalsRowDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{72215B1D-85CF-43CD-95DC-C4323ACC1527}" name="A" dataDxfId="35" totalsRowDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{B9888CFC-387C-4DCD-A7F8-DAFA78F263A3}" name="final" totalsRowFunction="custom" dataDxfId="34" totalsRowDxfId="0">
       <calculatedColumnFormula>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</calculatedColumnFormula>
       <totalsRowFormula>_xlfn.CONCAT(I18,",",I19,",",I20,",",I21,",",I22,",",I23,",",I24,",",I25,",",I26,",",I27,"};")</totalsRowFormula>
     </tableColumn>
@@ -678,7 +681,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A19E120A-6E29-458C-9108-193B31ACB02C}" name="Table2" displayName="Table2" ref="Q1:U14" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A19E120A-6E29-458C-9108-193B31ACB02C}" name="Table2" displayName="Table2" ref="Q1:U14" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="Q1:U14" xr:uid="{54C247DD-4D59-43FD-8264-5F723F35A77A}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -687,18 +690,18 @@
     <filterColumn colId="4" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{2513408F-960A-48BA-B011-3FC17DAC7DF9}" name="PinMap" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{9D72B6F9-6F33-4F52-9AC1-A293852E8FBA}" name="com1" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{1CB8F889-3284-4284-9F09-57727FAF89D4}" name="com2" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{045EEE89-400D-4474-982A-8D123E2AF345}" name="com3" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{A0AA3F87-39EA-4D5B-9DE4-16F474189616}" name="com4" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{2513408F-960A-48BA-B011-3FC17DAC7DF9}" name="PinMap" dataDxfId="31"/>
+    <tableColumn id="2" xr3:uid="{9D72B6F9-6F33-4F52-9AC1-A293852E8FBA}" name="com1" dataDxfId="30"/>
+    <tableColumn id="3" xr3:uid="{1CB8F889-3284-4284-9F09-57727FAF89D4}" name="com2" dataDxfId="29"/>
+    <tableColumn id="4" xr3:uid="{045EEE89-400D-4474-982A-8D123E2AF345}" name="com3" dataDxfId="28"/>
+    <tableColumn id="5" xr3:uid="{A0AA3F87-39EA-4D5B-9DE4-16F474189616}" name="com4" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E05B838F-115F-4568-AC2D-CFFBD02C7F79}" name="Table4" displayName="Table4" ref="K17:R24" totalsRowCount="1" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{E05B838F-115F-4568-AC2D-CFFBD02C7F79}" name="Table4" displayName="Table4" ref="K17:R24" totalsRowCount="1" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="K17:R23" xr:uid="{F6078CEB-5335-4E9C-A0EF-B684E2A499DD}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -709,14 +712,14 @@
     <filterColumn colId="6" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{986FE52B-923F-4E87-8CDB-AD142EC3CB22}" name="Segs" dataDxfId="28" totalsRowDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{DBCF4063-4200-4D02-8B6A-C3E380B04E80}" name="X0" dataDxfId="26" totalsRowDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{221A5482-B8DD-40EB-B128-5D23C1560A76}" name="X1" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{8104AA76-A364-41AD-B2B1-C8BBB22239DC}" name="X2" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{A8C2E54F-5B73-4327-B07C-DBB8D7568625}" name="X3" dataDxfId="20" totalsRowDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{C59D2AD3-C88E-4ACA-9093-E96FDDB03DF8}" name="X4" dataDxfId="18" totalsRowDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{AE92FF5E-8738-4F3A-8AFE-2B528C4A7B91}" name="X5" dataDxfId="16" totalsRowDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{78874560-81FB-4D1F-9E0B-BFA4B5067283}" name="final" totalsRowFunction="custom" dataDxfId="14" totalsRowDxfId="13">
+    <tableColumn id="1" xr3:uid="{986FE52B-923F-4E87-8CDB-AD142EC3CB22}" name="Segs" dataDxfId="24" totalsRowDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{DBCF4063-4200-4D02-8B6A-C3E380B04E80}" name="X0" dataDxfId="22" totalsRowDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{221A5482-B8DD-40EB-B128-5D23C1560A76}" name="X1" dataDxfId="20" totalsRowDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{8104AA76-A364-41AD-B2B1-C8BBB22239DC}" name="X2" dataDxfId="18" totalsRowDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{A8C2E54F-5B73-4327-B07C-DBB8D7568625}" name="X3" dataDxfId="16" totalsRowDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{C59D2AD3-C88E-4ACA-9093-E96FDDB03DF8}" name="X4" dataDxfId="14" totalsRowDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{AE92FF5E-8738-4F3A-8AFE-2B528C4A7B91}" name="X5" dataDxfId="12" totalsRowDxfId="11"/>
+    <tableColumn id="8" xr3:uid="{78874560-81FB-4D1F-9E0B-BFA4B5067283}" name="final" totalsRowFunction="custom" dataDxfId="10" totalsRowDxfId="9">
       <calculatedColumnFormula>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table4[[#This Row],[X0]:[X5]])))</calculatedColumnFormula>
       <totalsRowFormula>Combine(Table4[final])</totalsRowFormula>
     </tableColumn>
@@ -1025,8 +1028,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1856,9 +1859,11 @@
         <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
         <v>0x77</v>
       </c>
-      <c r="L28" s="1" t="str">
-        <f>HEX2BIN(30)</f>
-        <v>110000</v>
+      <c r="L28" s="1">
+        <v>6.18</v>
+      </c>
+      <c r="M28" s="1">
+        <v>6.56</v>
       </c>
       <c r="O28" s="2"/>
       <c r="Q28" s="2"/>
@@ -1892,6 +1897,10 @@
         <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
         <v>0x7C</v>
       </c>
+      <c r="L29" s="1">
+        <f>1/L28</f>
+        <v>0.16181229773462785</v>
+      </c>
       <c r="O29" s="2"/>
       <c r="Q29" s="2"/>
     </row>
@@ -1924,6 +1933,14 @@
         <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
         <v>0x39</v>
       </c>
+      <c r="L30" s="1">
+        <f>L29-M30</f>
+        <v>9.3732733443839533E-3</v>
+      </c>
+      <c r="M30" s="1">
+        <f>1/M28</f>
+        <v>0.1524390243902439</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="Q30" s="2"/>
     </row>
@@ -1956,6 +1973,10 @@
         <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
         <v>0x5E</v>
       </c>
+      <c r="L31" s="1">
+        <f>1000*L30</f>
+        <v>9.3732733443839535</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="Q31" s="2"/>
     </row>
@@ -2152,10 +2173,33 @@
       <c r="Q37" s="2"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="H38" s="6"/>
+      <c r="A38" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+      <c r="G38" s="1">
+        <v>0</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0</v>
+      </c>
       <c r="I38" s="2" t="str">
         <f>_xlfn.CONCAT("0x",BIN2HEX(_xlfn.CONCAT(Table1[[#This Row],[G]:[A]])))</f>
-        <v>0x0</v>
+        <v>0x40</v>
       </c>
       <c r="O38" s="2"/>
       <c r="Q38" s="2"/>
